--- a/DynamicProgramming/Excel/DP.xlsx
+++ b/DynamicProgramming/Excel/DP.xlsx
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T16"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -375,289 +375,322 @@
     <col min="13" max="13" width="20.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"1 + MIN(   F("&amp;I2-1&amp;"), F("&amp;I2-3&amp;"), F("&amp;I2-5&amp;")    )"</f>
+        <v>1 + MIN(   F(0), F(-2), F(-4)    )</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="0">"1 + MIN(   F("&amp;I3-1&amp;"), F("&amp;I3-3&amp;"), F("&amp;I3-5&amp;")    )"</f>
+        <v>1 + MIN(   F(1), F(-1), F(-3)    )</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
+      <c r="G4">
+        <v>300</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <f>"1 + MIN(   F("&amp;I4-1&amp;"), F("&amp;I4-3&amp;"), F("&amp;I4-5&amp;")    )"</f>
-        <v>1 + MIN(   F(0), F(-2), F(-4)    )</v>
+        <f t="shared" si="0"/>
+        <v>1 + MIN(   F(2), F(0), F(-2)    )</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L16" si="0">"1 + MIN(   F("&amp;I5-1&amp;"), F("&amp;I5-3&amp;"), F("&amp;I5-5&amp;")    )"</f>
-        <v>1 + MIN(   F(1), F(-1), F(-3)    )</v>
+        <f t="shared" si="0"/>
+        <v>1 + MIN(   F(3), F(1), F(-1)    )</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(2), F(0), F(-2)    )</v>
+        <v>1 + MIN(   F(4), F(2), F(0)    )</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
       <c r="I7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(3), F(1), F(-1)    )</v>
+        <v>1 + MIN(   F(5), F(3), F(1)    )</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
       <c r="I8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(4), F(2), F(0)    )</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8" t="s">
-        <v>5</v>
+        <v>1 + MIN(   F(6), F(4), F(2)    )</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(5), F(3), F(1)    )</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9">
-        <v>9</v>
-      </c>
-      <c r="S9" t="s">
-        <v>6</v>
+        <v>1 + MIN(   F(7), F(5), F(3)    )</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(6), F(4), F(2)    )</v>
+        <v>1 + MIN(   F(8), F(6), F(4)    )</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
       <c r="I11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(7), F(5), F(3)    )</v>
+        <v>1 + MIN(   F(9), F(7), F(5)    )</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(8), F(6), F(4)    )</v>
+        <v>1 + MIN(   F(10), F(8), F(6)    )</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
       <c r="I13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>1 + MIN(   F(9), F(7), F(5)    )</v>
+        <v>1 + MIN(   F(11), F(9), F(7)    )</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
       <c r="I14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>1 + MIN(   F(10), F(8), F(6)    )</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>1 + MIN(   F(11), F(9), F(7)    )</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="I16">
-        <v>13</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>1 + MIN(   F(12), F(10), F(8)    )</v>
       </c>

--- a/DynamicProgramming/Excel/DP.xlsx
+++ b/DynamicProgramming/Excel/DP.xlsx
@@ -13,8 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>1 + min( F(n-1), F(n/2), F (n/3)  )</t>
   </si>
@@ -45,6 +48,120 @@
   </si>
   <si>
     <t>5,3,2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Fib(3)</t>
+  </si>
+  <si>
+    <t>Fib(2)</t>
+  </si>
+  <si>
+    <t>Fib(1)</t>
+  </si>
+  <si>
+    <t>Fib(0)</t>
+  </si>
+  <si>
+    <t>Fib(-1)</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>acb</t>
+  </si>
+  <si>
+    <t>bac</t>
+  </si>
+  <si>
+    <t>bca</t>
+  </si>
+  <si>
+    <t>cab</t>
+  </si>
+  <si>
+    <t>cba</t>
+  </si>
+  <si>
+    <t>Fear Of Alone</t>
+  </si>
+  <si>
+    <t>Fear of being Bored</t>
+  </si>
+  <si>
+    <t>Meaningless Life</t>
+  </si>
+  <si>
+    <t>Based on Future of current actions</t>
+  </si>
+  <si>
+    <t>Do your best now</t>
+  </si>
+  <si>
+    <t>1+1+1+1+1+1</t>
+  </si>
+  <si>
+    <t>1+1+1+3</t>
+  </si>
+  <si>
+    <t>1+1+3+1</t>
+  </si>
+  <si>
+    <t>1+3+1+1</t>
+  </si>
+  <si>
+    <t>3+1+1+1</t>
+  </si>
+  <si>
+    <t>1+4</t>
+  </si>
+  <si>
+    <t>4+1</t>
+  </si>
+  <si>
+    <t>1+1+4</t>
+  </si>
+  <si>
+    <t>1+4+1</t>
+  </si>
+  <si>
+    <t>4+1+1</t>
+  </si>
+  <si>
+    <t>1+1+1+1+1</t>
+  </si>
+  <si>
+    <t>1+1+3</t>
+  </si>
+  <si>
+    <t>1+3+1</t>
+  </si>
+  <si>
+    <t>3+1+1</t>
   </si>
 </sst>
 </file>
@@ -68,10 +185,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -80,8 +206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -373,6 +507,8 @@
     <col min="5" max="5" width="26.06640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
@@ -382,6 +518,9 @@
       <c r="C1">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -401,9 +540,6 @@
       </c>
       <c r="C2">
         <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -649,6 +785,12 @@
         <f t="shared" si="0"/>
         <v>1 + MIN(   F(9), F(7), F(5)    )</v>
       </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -670,6 +812,12 @@
         <f t="shared" si="0"/>
         <v>1 + MIN(   F(10), F(8), F(6)    )</v>
       </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="I13">
@@ -682,6 +830,12 @@
         <f t="shared" si="0"/>
         <v>1 + MIN(   F(11), F(9), F(7)    )</v>
       </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="I14">
@@ -693,6 +847,359 @@
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>1 + MIN(   F(12), F(10), F(8)    )</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <f>1*1</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <f>4*4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
